--- a/psych_RT_sub-22ML.xlsx
+++ b/psych_RT_sub-22ML.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E8E9C03-4D6E-49C2-BEB7-EAF870F55923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DB8DF5-0B23-4E31-B442-A6AF50FD0843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psych_RT_sub-22ML (2)" sheetId="2" r:id="rId1"/>
@@ -19,20 +19,32 @@
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'psych_RT_sub-22ML (2)'!$A$1:$M$61</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - psych_RT_sub-22ML" description="Connexion à la requête « psych_RT_sub-22ML » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - psych_RT_sub-22ML" description="Connexion à la requête « psych_RT_sub-22ML » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=psych_RT_sub-22ML;Extended Properties=&quot;&quot;" command="SELECT * FROM [psych_RT_sub-22ML]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="136">
   <si>
     <t>,MDDV,MDDF,MDGV,MDGF,VMDV,VMDF,VMGV,VMGF,RTDV,RTDF,RTGV,RTGF</t>
   </si>
@@ -259,429 +271,90 @@
     <t>Essai0</t>
   </si>
   <si>
-    <t>1.4333333333333333</t>
-  </si>
-  <si>
-    <t>1.3833333333333333</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>4800.0</t>
-  </si>
-  <si>
-    <t>2760.0</t>
-  </si>
-  <si>
-    <t>2460.0</t>
-  </si>
-  <si>
-    <t>4320.0</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.5333333333333333</t>
-  </si>
-  <si>
-    <t>0.48333333333333334</t>
-  </si>
-  <si>
-    <t>0.4666666666666667</t>
-  </si>
-  <si>
     <t>Essai1</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.0166666666666666</t>
-  </si>
-  <si>
-    <t>1.0666666666666667</t>
-  </si>
-  <si>
-    <t>0.9333333333333333</t>
-  </si>
-  <si>
-    <t>3300.0</t>
-  </si>
-  <si>
-    <t>2580.0</t>
-  </si>
-  <si>
-    <t>3600.0</t>
-  </si>
-  <si>
-    <t>3660.0</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.43333333333333335</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>Essai2</t>
   </si>
   <si>
-    <t>1.1333333333333333</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>2940.0</t>
-  </si>
-  <si>
-    <t>1860.0</t>
-  </si>
-  <si>
-    <t>1920.0</t>
-  </si>
-  <si>
-    <t>2820.0</t>
-  </si>
-  <si>
-    <t>0.5166666666666667</t>
-  </si>
-  <si>
     <t>Essai3</t>
   </si>
   <si>
-    <t>0.8333333333333334</t>
-  </si>
-  <si>
-    <t>0.9166666666666666</t>
-  </si>
-  <si>
-    <t>0.9833333333333333</t>
-  </si>
-  <si>
-    <t>4020.0</t>
-  </si>
-  <si>
-    <t>3780.0</t>
-  </si>
-  <si>
-    <t>7200.0</t>
-  </si>
-  <si>
-    <t>0.4166666666666667</t>
-  </si>
-  <si>
-    <t>0.5833333333333334</t>
-  </si>
-  <si>
     <t>Essai4</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>3120.0</t>
-  </si>
-  <si>
-    <t>4260.0</t>
-  </si>
-  <si>
-    <t>3420.0</t>
-  </si>
-  <si>
-    <t>3900.0</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.6166666666666667</t>
-  </si>
-  <si>
     <t>Essai5</t>
   </si>
   <si>
-    <t>0.8833333333333333</t>
-  </si>
-  <si>
-    <t>0.9666666666666667</t>
-  </si>
-  <si>
-    <t>1.3166666666666667</t>
-  </si>
-  <si>
-    <t>2280.0</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
     <t>Essai6</t>
   </si>
   <si>
-    <t>0.8166666666666667</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.0833333333333333</t>
-  </si>
-  <si>
-    <t>7140.0</t>
-  </si>
-  <si>
-    <t>2700.0</t>
-  </si>
-  <si>
-    <t>2100.0</t>
-  </si>
-  <si>
     <t>Essai7</t>
   </si>
   <si>
-    <t>4080.0</t>
-  </si>
-  <si>
-    <t>3960.0</t>
-  </si>
-  <si>
-    <t>3480.0</t>
-  </si>
-  <si>
     <t>Essai8</t>
   </si>
   <si>
-    <t>7020.0</t>
-  </si>
-  <si>
-    <t>2880.0</t>
-  </si>
-  <si>
     <t>Essai9</t>
   </si>
   <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>1.1833333333333333</t>
-  </si>
-  <si>
-    <t>2220.0</t>
-  </si>
-  <si>
     <t>Essai10</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>2640.0</t>
-  </si>
-  <si>
-    <t>2340.0</t>
-  </si>
-  <si>
-    <t>3180.0</t>
-  </si>
-  <si>
     <t>Essai11</t>
   </si>
   <si>
-    <t>1.1166666666666667</t>
-  </si>
-  <si>
-    <t>1.0333333333333334</t>
-  </si>
-  <si>
-    <t>0.7833333333333333</t>
-  </si>
-  <si>
-    <t>3360.0</t>
-  </si>
-  <si>
-    <t>4140.0</t>
-  </si>
-  <si>
     <t>Essai12</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>5460.0</t>
-  </si>
-  <si>
     <t>Essai13</t>
   </si>
   <si>
-    <t>1.7666666666666666</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>6540.0</t>
-  </si>
-  <si>
-    <t>2520.0</t>
-  </si>
-  <si>
-    <t>6180.0</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t>Essai14</t>
   </si>
   <si>
-    <t>3840.0</t>
-  </si>
-  <si>
-    <t>4560.0</t>
-  </si>
-  <si>
     <t>Essai15</t>
   </si>
   <si>
-    <t>1.3666666666666667</t>
-  </si>
-  <si>
-    <t>4980.0</t>
-  </si>
-  <si>
-    <t>4740.0</t>
-  </si>
-  <si>
-    <t>6360.0</t>
-  </si>
-  <si>
     <t>Essai16</t>
   </si>
   <si>
-    <t>5340.0</t>
-  </si>
-  <si>
-    <t>3000.0</t>
-  </si>
-  <si>
     <t>Essai17</t>
   </si>
   <si>
-    <t>0.8666666666666667</t>
-  </si>
-  <si>
-    <t>2040.0</t>
-  </si>
-  <si>
-    <t>4200.0</t>
-  </si>
-  <si>
     <t>Essai18</t>
   </si>
   <si>
-    <t>1.4166666666666667</t>
-  </si>
-  <si>
-    <t>6840.0</t>
-  </si>
-  <si>
     <t>Essai19</t>
   </si>
   <si>
-    <t>0.7333333333333333</t>
-  </si>
-  <si>
-    <t>8760.0</t>
-  </si>
-  <si>
-    <t>6120.0</t>
-  </si>
-  <si>
     <t>Essai20</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>5700.0</t>
-  </si>
-  <si>
-    <t>5280.0</t>
-  </si>
-  <si>
-    <t>0.38333333333333336</t>
-  </si>
-  <si>
-    <t>0.36666666666666664</t>
-  </si>
-  <si>
     <t>Essai21</t>
   </si>
   <si>
-    <t>8340.0</t>
-  </si>
-  <si>
-    <t>0.5666666666666667</t>
-  </si>
-  <si>
     <t>Essai22</t>
   </si>
   <si>
-    <t>5640.0</t>
-  </si>
-  <si>
-    <t>2400.0</t>
-  </si>
-  <si>
     <t>Essai23</t>
   </si>
   <si>
-    <t>6780.0</t>
-  </si>
-  <si>
-    <t>3540.0</t>
-  </si>
-  <si>
     <t>Essai24</t>
   </si>
   <si>
-    <t>5400.0</t>
-  </si>
-  <si>
     <t>Essai25</t>
   </si>
   <si>
     <t>Essai26</t>
   </si>
   <si>
-    <t>6300.0</t>
-  </si>
-  <si>
-    <t>4860.0</t>
-  </si>
-  <si>
     <t>Essai27</t>
   </si>
   <si>
-    <t>7740.0</t>
-  </si>
-  <si>
     <t>Essai28</t>
   </si>
   <si>
@@ -694,45 +367,18 @@
     <t>Essai31</t>
   </si>
   <si>
-    <t>0.7666666666666667</t>
-  </si>
-  <si>
     <t>Essai32</t>
   </si>
   <si>
-    <t>1.1666666666666667</t>
-  </si>
-  <si>
-    <t>7080.0</t>
-  </si>
-  <si>
     <t>Essai33</t>
   </si>
   <si>
-    <t>9360.0</t>
-  </si>
-  <si>
     <t>Essai34</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1800.0</t>
-  </si>
-  <si>
-    <t>0.6333333333333333</t>
-  </si>
-  <si>
     <t>Essai35</t>
   </si>
   <si>
-    <t>1.5666666666666667</t>
-  </si>
-  <si>
-    <t>7260.0</t>
-  </si>
-  <si>
     <t>Essai36</t>
   </si>
   <si>
@@ -745,21 +391,12 @@
     <t>Essai39</t>
   </si>
   <si>
-    <t>7320.0</t>
-  </si>
-  <si>
     <t>Essai40</t>
   </si>
   <si>
     <t>Essai41</t>
   </si>
   <si>
-    <t>1.7333333333333334</t>
-  </si>
-  <si>
-    <t>3720.0</t>
-  </si>
-  <si>
     <t>Essai42</t>
   </si>
   <si>
@@ -769,30 +406,18 @@
     <t>Essai44</t>
   </si>
   <si>
-    <t>4620.0</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>Essai45</t>
   </si>
   <si>
     <t>Essai46</t>
   </si>
   <si>
-    <t>5520.0</t>
-  </si>
-  <si>
     <t>Essai47</t>
   </si>
   <si>
     <t>Essai48</t>
   </si>
   <si>
-    <t>0.31666666666666665</t>
-  </si>
-  <si>
     <t>Essai49</t>
   </si>
   <si>
@@ -805,21 +430,12 @@
     <t>Essai52</t>
   </si>
   <si>
-    <t>1.2833333333333334</t>
-  </si>
-  <si>
-    <t>5760.0</t>
-  </si>
-  <si>
     <t>Essai53</t>
   </si>
   <si>
     <t>Essai54</t>
   </si>
   <si>
-    <t>0.3333333333333333</t>
-  </si>
-  <si>
     <t>Essai55</t>
   </si>
   <si>
@@ -829,19 +445,19 @@
     <t>Essai57</t>
   </si>
   <si>
-    <t>6060.0</t>
-  </si>
-  <si>
     <t>Essai58</t>
   </si>
   <si>
     <t>Essai59</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1421,7 +1037,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -1443,22 +1059,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="psych_RT_sub_22ML" displayName="psych_RT_sub_22ML" ref="A1:M61" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="psych_RT_sub_22ML" displayName="psych_RT_sub_22ML" ref="A1:M62" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:M61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" uniqueName="2" name="MDDV" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" uniqueName="3" name="MDDF" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" uniqueName="4" name="MDGV" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" uniqueName="5" name="MDGF" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" uniqueName="6" name="VMDV" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" uniqueName="7" name="VMDF" queryTableFieldId="7" dataDxfId="6"/>
-    <tableColumn id="8" uniqueName="8" name="VMGV" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" uniqueName="9" name="VMGF" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" uniqueName="10" name="RTDV" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" uniqueName="11" name="RTDF" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="12" uniqueName="12" name="RTGV" queryTableFieldId="12" dataDxfId="1"/>
-    <tableColumn id="13" uniqueName="13" name="RTGF" queryTableFieldId="13" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Column1" totalsRowLabel="Total" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="MDDV" totalsRowFunction="average" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="MDDF" totalsRowFunction="average" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="MDGV" totalsRowFunction="average" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="MDGF" totalsRowFunction="average" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="VMDV" totalsRowFunction="average" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="VMDF" totalsRowFunction="average" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="VMGV" totalsRowFunction="average" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="VMGF" totalsRowFunction="average" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="RTDV" totalsRowFunction="average" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="RTDF" totalsRowFunction="average" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="RTGV" totalsRowFunction="average" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="RTGF" totalsRowFunction="average" queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1760,10 +1376,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62:M62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1821,2460 +1439,2513 @@
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>85</v>
+      <c r="B2" s="1">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.38333333333333</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2760</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2460</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4320</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.46666666666666601</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0166666666666599</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3300</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2580</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3600</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3660</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2940</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1860</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1920</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2820</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.51666666666666605</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4020</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1920</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3780</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7200</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3120</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4260</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3420</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3900</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.61666666666666603</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>123</v>
+        <v>79</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.31666666666666</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3660</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2460</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2280</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.61666666666666603</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>105</v>
+      <c r="B8" s="1">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7140</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2700</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2460</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.51666666666666605</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4080</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2760</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3960</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3480</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0166666666666599</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7020</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3960</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3900</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2880</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.18333333333333</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3960</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2220</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4020</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.43333333333333302</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2640</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2340</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2580</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3180</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.11666666666666</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3360</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3900</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4140</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4020</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.46666666666666601</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>129</v>
+        <v>86</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5460</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3120</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2280</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2700</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.7666666666666599</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6540</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2520</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6180</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3480</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>85</v>
+      <c r="B16" s="1">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0166666666666599</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3840</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3180</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4560</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4260</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.46666666666666601</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.36666666666666</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4980</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2520</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4740</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6360</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>129</v>
+        <v>90</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5340</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3180</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3660</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.45</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.0166666666666599</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2040</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2760</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6180</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.4166666666666601</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4020</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6840</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2100</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.61666666666666603</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0166666666666599</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8760</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1860</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6120</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4200</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.483333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.93333333333333302</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>194</v>
+        <v>95</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>195</v>
+        <v>95</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5700</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>196</v>
+        <v>95</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5280</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>197</v>
+        <v>95</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.38333333333333303</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.36666666666666597</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>133</v>
+        <v>96</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.0833333333333299</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.83333333333333304</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>200</v>
+        <v>95</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8340</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3420</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>201</v>
+        <v>95</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.56666666666666599</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.483333333333333</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.98333333333333295</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>146</v>
+        <v>95</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.18333333333333</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>203</v>
+        <v>95</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5640</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>204</v>
+        <v>95</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2400</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>197</v>
+        <v>95</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.38333333333333303</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.51666666666666605</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.0166666666666599</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>182</v>
+        <v>95</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.86666666666666603</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>206</v>
+        <v>95</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6780</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>207</v>
+        <v>95</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3540</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.51666666666666605</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.483333333333333</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>182</v>
+        <v>95</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.86666666666666603</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>172</v>
+        <v>95</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4560</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>209</v>
+        <v>95</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5400</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.46666666666666601</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.483333333333333</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>100</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.0333333333333301</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.05</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3600</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>140</v>
+        <v>95</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3480</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>169</v>
+        <v>95</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.6</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.58333333333333304</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.96666666666666601</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.91666666666666596</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>212</v>
+        <v>95</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6300</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>213</v>
+        <v>95</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4860</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.53333333333333299</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.4</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.93333333333333302</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7740</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4260</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.4</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>197</v>
+        <v>95</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.38333333333333303</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>103</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.0333333333333301</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.98333333333333295</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>171</v>
+        <v>95</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3840</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>207</v>
+        <v>95</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3540</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.4</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.98333333333333295</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.91666666666666596</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>151</v>
+        <v>95</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2340</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>207</v>
+        <v>95</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3540</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.36666666666666597</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.06666666666666</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.98333333333333295</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3420</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>209</v>
+        <v>95</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5400</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.5</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.4</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>106</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.76666666666666605</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.88333333333333297</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>176</v>
+        <v>95</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4740</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3420</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>197</v>
+        <v>95</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.38333333333333303</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>107</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.0333333333333301</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>222</v>
+        <v>95</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.1666666666666601</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>223</v>
+        <v>95</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7080</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2460</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.5</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>108</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.11666666666666</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>225</v>
+        <v>95</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9360</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4080</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.45</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.61666666666666603</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>227</v>
+        <v>109</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>155</v>
+        <v>95</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.0333333333333301</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>151</v>
+        <v>95</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2340</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>228</v>
+        <v>95</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1800</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>229</v>
+        <v>95</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.63333333333333297</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.483333333333333</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>231</v>
+        <v>110</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.56666666666666</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.88333333333333297</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>184</v>
+        <v>95</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4200</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>232</v>
+        <v>95</v>
+      </c>
+      <c r="H37" s="1">
+        <v>7260</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>197</v>
+        <v>95</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.38333333333333303</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.06666666666666</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.83333333333333304</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7740</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2220</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.36666666666666597</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.36666666666666597</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.0166666666666599</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>182</v>
+        <v>95</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.86666666666666603</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2280</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2580</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>201</v>
+        <v>95</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.56666666666666599</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.93333333333333302</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2460</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2700</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.483333333333333</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.0833333333333299</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>237</v>
+        <v>95</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7320</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2280</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>115</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.05</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.88333333333333297</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4800</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>152</v>
+        <v>95</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3180</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.55000000000000004</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.51666666666666605</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>240</v>
+        <v>116</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.7333333333333301</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.91666666666666596</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>241</v>
+        <v>95</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3720</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2220</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.0833333333333299</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.46666666666666601</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.93333333333333302</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.96666666666666601</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3780</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>151</v>
+        <v>95</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2340</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.46666666666666601</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.95</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>176</v>
+        <v>95</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4740</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>143</v>
+        <v>95</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2880</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.55000000000000004</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.4</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>245</v>
+        <v>95</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4620</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>196</v>
+        <v>95</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5280</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>246</v>
+        <v>95</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.75</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>120</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.83333333333333304</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>152</v>
+        <v>95</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3180</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3360</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.96666666666666601</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>249</v>
+        <v>95</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5520</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4020</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.483333333333333</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.45</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.96666666666666601</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>222</v>
+        <v>95</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.1666666666666601</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>150</v>
+        <v>95</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2640</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3300</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.5</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.45</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.05</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2580</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>180</v>
+        <v>95</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3000</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>252</v>
+        <v>95</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.31666666666666599</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.45</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.96666666666666601</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.98333333333333295</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>180</v>
+        <v>95</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3000</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2580</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.55000000000000004</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.93333333333333302</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>228</v>
+        <v>95</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1800</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>195</v>
+        <v>95</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5700</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.46666666666666601</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.36666666666666597</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.81666666666666599</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.93333333333333302</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7020</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>151</v>
+        <v>95</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2340</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.85</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>257</v>
+        <v>95</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.2833333333333301</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>258</v>
+        <v>95</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5760</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2520</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.8</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.05</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2460</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>245</v>
+        <v>95</v>
+      </c>
+      <c r="H55" s="1">
+        <v>4620</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.46666666666666601</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.96666666666666601</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3960</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>206</v>
+        <v>95</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6780</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>261</v>
+        <v>95</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.33333333333333298</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.5</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.95</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.0833333333333299</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>158</v>
+        <v>95</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4140</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3120</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.45</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.53333333333333299</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>131</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.86666666666666603</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>241</v>
+        <v>95</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3720</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2460</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.4</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>227</v>
+        <v>132</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.81666666666666599</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>265</v>
+        <v>95</v>
+      </c>
+      <c r="F59" s="1">
+        <v>6060</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>184</v>
+        <v>95</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4200</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>201</v>
+        <v>95</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.56666666666666599</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.81666666666666599</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.81666666666666599</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>140</v>
+        <v>95</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3480</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3780</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.36666666666666597</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.43333333333333302</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.85</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.98333333333333295</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4080</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>168</v>
+        <v>95</v>
+      </c>
+      <c r="H61" s="1">
+        <v>6180</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.41666666666666602</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.483333333333333</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[MDDV])</f>
+        <v>1.005555555555554</v>
+      </c>
+      <c r="C62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[MDDF])</f>
+        <v>1.0249999999999972</v>
+      </c>
+      <c r="D62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[MDGV])</f>
+        <v>0.97444444444444323</v>
+      </c>
+      <c r="E62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[MDGF])</f>
+        <v>1.1049999999999982</v>
+      </c>
+      <c r="F62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[VMDV])</f>
+        <v>4631</v>
+      </c>
+      <c r="G62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[VMDF])</f>
+        <v>3042</v>
+      </c>
+      <c r="H62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[VMGV])</f>
+        <v>3683</v>
+      </c>
+      <c r="I62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[VMGF])</f>
+        <v>3858</v>
+      </c>
+      <c r="J62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[RTDV])</f>
+        <v>0.46499999999999969</v>
+      </c>
+      <c r="K62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[RTDF])</f>
+        <v>0.51499999999999957</v>
+      </c>
+      <c r="L62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[RTGV])</f>
+        <v>0.47166666666666618</v>
+      </c>
+      <c r="M62">
+        <f>SUBTOTAL(101,psych_RT_sub_22ML[RTGF])</f>
+        <v>0.48749999999999971</v>
       </c>
     </row>
   </sheetData>
@@ -4286,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
